--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-158226.187254704</v>
+        <v>-160794.6106936493</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10116307.12854491</v>
+        <v>10116307.12854492</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12741744.44635145</v>
+        <v>12741744.44635144</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1370,10 @@
         <v>355.8126253390002</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3516754465272</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7618252962026</v>
+        <v>136.4973132872053</v>
       </c>
       <c r="E11" t="n">
         <v>355.0091537477815</v>
@@ -1385,10 +1385,10 @@
         <v>384.0005093289731</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6865480628401</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.6557134484456</v>
+        <v>14.65571344844566</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.91437931067608</v>
+        <v>82.26654546369554</v>
       </c>
       <c r="T11" t="n">
         <v>176.9967538151398</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0739556344216</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3197523929327</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8098843539887</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3167223315733</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9107638574569</v>
+        <v>152.910763857457</v>
       </c>
       <c r="C13" t="n">
         <v>140.3256047741475</v>
@@ -1534,19 +1534,19 @@
         <v>121.694256693732</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5127463220888</v>
+        <v>19.51285708477866</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4998316984509</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>139.1045919345479</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8337985898404</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43120408535779</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>14.97688555457238</v>
+        <v>62.01093634556702</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8478090069616</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6277329516888</v>
+        <v>192.6277329516889</v>
       </c>
       <c r="U13" t="n">
         <v>259.2906218811326</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2164269993476</v>
+        <v>225.2164269993477</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6017820121107</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7884390645568</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6634370276144</v>
+        <v>191.6634370276145</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1607,16 @@
         <v>355.8126253390002</v>
       </c>
       <c r="C14" t="n">
-        <v>298.9675862399122</v>
+        <v>338.3516754465272</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7618252962026</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0091537477815</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9548294172311</v>
+        <v>72.03675381047059</v>
       </c>
       <c r="G14" t="n">
         <v>384.0005093289731</v>
@@ -1625,7 +1625,7 @@
         <v>267.6865480628401</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6557134484456</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26654546369548</v>
+        <v>82.26654546369551</v>
       </c>
       <c r="T14" t="n">
         <v>176.9967538151398</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0739556344216</v>
+        <v>224.0739556344217</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3197523929327</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8098843539887</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3167223315733</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.910763857457</v>
       </c>
       <c r="C16" t="n">
         <v>140.3256047741475</v>
@@ -1771,7 +1771,7 @@
         <v>121.694256693732</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5127463220888</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>118.4998316984509</v>
@@ -1780,10 +1780,10 @@
         <v>139.1045919345479</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8337985898404</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43120408535773</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01093634556698</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8478090069615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6277329516888</v>
+        <v>128.3289257637931</v>
       </c>
       <c r="U16" t="n">
         <v>259.2906218811326</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2164269993476</v>
+        <v>225.2164269993477</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>259.6017820121107</v>
       </c>
       <c r="X16" t="n">
-        <v>133.1994819862542</v>
+        <v>198.7884390645568</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6634370276144</v>
+        <v>191.6634370276145</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1844,10 @@
         <v>308.8374887204077</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3765388279346</v>
+        <v>291.3765388279347</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7866886776101</v>
+        <v>243.5842944225576</v>
       </c>
       <c r="E17" t="n">
         <v>308.0340171291889</v>
@@ -1856,7 +1856,7 @@
         <v>332.9796927986386</v>
       </c>
       <c r="G17" t="n">
-        <v>39.27963956503429</v>
+        <v>337.0253727103806</v>
       </c>
       <c r="H17" t="n">
         <v>220.7114114442476</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29140884510295</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0216171965472</v>
+        <v>130.0216171965473</v>
       </c>
       <c r="U17" t="n">
         <v>177.0988190158291</v>
@@ -1907,10 +1907,10 @@
         <v>275.3446157743401</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8347477353961</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3415857129806</v>
+        <v>312.3415857129808</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555492</v>
+        <v>93.35046815555498</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71912007513944</v>
+        <v>74.7191200751395</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53760970349626</v>
+        <v>72.53760970349632</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52469507985833</v>
+        <v>71.52469507985839</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12945531595531</v>
+        <v>92.12945531595537</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85866197124787</v>
+        <v>70.85866197124793</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45606746676517</v>
+        <v>22.45606746676523</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0357997269744</v>
+        <v>15.03579972697446</v>
       </c>
       <c r="S19" t="n">
-        <v>178.289482380995</v>
+        <v>115.872672388369</v>
       </c>
       <c r="T19" t="n">
         <v>145.6525963330963</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3154852625399</v>
+        <v>212.31548526254</v>
       </c>
       <c r="V19" t="n">
         <v>178.2412903807551</v>
@@ -2065,7 +2065,7 @@
         <v>212.6266453935181</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8133024459642</v>
+        <v>214.2301124385894</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6883004090219</v>
@@ -2081,22 +2081,22 @@
         <v>308.8374887204077</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3765388279346</v>
+        <v>291.3765388279347</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7866886776101</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0340171291889</v>
+        <v>255.7835638163505</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9796927986386</v>
       </c>
       <c r="G20" t="n">
-        <v>336.9679235185699</v>
+        <v>337.0253727103806</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7114114442475</v>
+        <v>220.7114114442476</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29140884510294</v>
+        <v>35.29140884510295</v>
       </c>
       <c r="T20" t="n">
         <v>130.0216171965473</v>
@@ -2147,7 +2147,7 @@
         <v>295.8347477353961</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3415857129806</v>
+        <v>312.3415857129807</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35046815555492</v>
+        <v>93.35046815555495</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71912007513944</v>
+        <v>74.71912007513947</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53760970349626</v>
+        <v>72.53760970349629</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52469507985833</v>
+        <v>71.52469507985836</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12945531595531</v>
+        <v>92.12945531595534</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85866197124787</v>
+        <v>133.2754719638734</v>
       </c>
       <c r="I22" t="n">
-        <v>22.4560674667652</v>
+        <v>22.45606746676521</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03579972697443</v>
+        <v>15.03579972697445</v>
       </c>
       <c r="S22" t="n">
-        <v>178.2894823809941</v>
+        <v>115.872672388369</v>
       </c>
       <c r="T22" t="n">
         <v>145.6525963330963</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3154852625399</v>
+        <v>212.31548526254</v>
       </c>
       <c r="V22" t="n">
         <v>178.2412903807551</v>
@@ -2302,7 +2302,7 @@
         <v>212.6266453935181</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8133024459642</v>
+        <v>151.8133024459643</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6883004090219</v>
@@ -2318,7 +2318,7 @@
         <v>308.8374887204077</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3765388279346</v>
+        <v>291.3765388279347</v>
       </c>
       <c r="D23" t="n">
         <v>280.7866886776101</v>
@@ -2333,7 +2333,7 @@
         <v>337.0253727103806</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7114114442475</v>
+        <v>220.7114114442476</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29140884510294</v>
+        <v>35.29140884510295</v>
       </c>
       <c r="T23" t="n">
         <v>130.0216171965473</v>
@@ -2384,7 +2384,7 @@
         <v>295.8347477353961</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3415857129806</v>
+        <v>312.3415857129807</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35046815555492</v>
+        <v>93.35046815555495</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71912007513944</v>
+        <v>74.71912007513947</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53760970349626</v>
+        <v>72.53760970349629</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52469507985833</v>
+        <v>71.52469507985836</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12945531595531</v>
+        <v>92.12945531595534</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85866197124787</v>
+        <v>70.8586619712479</v>
       </c>
       <c r="I25" t="n">
-        <v>22.4560674667652</v>
+        <v>22.45606746676521</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03579972697443</v>
+        <v>15.03579972697445</v>
       </c>
       <c r="S25" t="n">
-        <v>115.872672388369</v>
+        <v>178.2894823809943</v>
       </c>
       <c r="T25" t="n">
         <v>145.6525963330963</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3154852625399</v>
+        <v>212.31548526254</v>
       </c>
       <c r="V25" t="n">
         <v>178.2412903807551</v>
@@ -2539,10 +2539,10 @@
         <v>212.6266453935181</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8133024459642</v>
+        <v>151.8133024459643</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.1051104016471</v>
+        <v>144.6883004090219</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,16 +3193,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124554</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F35" t="n">
         <v>359.9009091231189</v>
@@ -3281,7 +3281,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3323,7 +3323,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W35" t="n">
         <v>302.2658320988205</v>
@@ -3332,7 +3332,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C38" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F38" t="n">
         <v>359.9009091231189</v>
@@ -3518,7 +3518,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3560,7 +3560,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3569,7 +3569,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
         <v>204.0200353403094</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3952,7 +3952,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3961,7 +3961,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
         <v>171.6095167335022</v>
@@ -3977,7 +3977,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
         <v>307.7079050020903</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.046034918521</v>
+        <v>1691.228474690935</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.046034918521</v>
+        <v>1349.459105553029</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.973484114276</v>
+        <v>1211.583031525548</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.378379318537</v>
+        <v>852.9879267298096</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5856223314348</v>
+        <v>469.1951697427074</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7063199789368</v>
+        <v>81.31586739020931</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31586739020941</v>
+        <v>81.31586739020931</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001388</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3266.096347557982</v>
+        <v>3242.50830093877</v>
       </c>
       <c r="T11" t="n">
-        <v>3087.31174774471</v>
+        <v>3063.723701125497</v>
       </c>
       <c r="U11" t="n">
-        <v>2860.974418821053</v>
+        <v>3063.723701125497</v>
       </c>
       <c r="V11" t="n">
-        <v>2860.974418821053</v>
+        <v>2759.853961584432</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.398911353444</v>
+        <v>2759.853961584432</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.398911353444</v>
+        <v>2413.581351125858</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.452727180138</v>
+        <v>2050.635166952551</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031474</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>831.1291164451203</v>
+        <v>680.5548570002691</v>
       </c>
       <c r="C13" t="n">
-        <v>689.3860813197188</v>
+        <v>538.8118218748675</v>
       </c>
       <c r="D13" t="n">
-        <v>566.4625897098884</v>
+        <v>415.8883302650368</v>
       </c>
       <c r="E13" t="n">
-        <v>445.7426439300007</v>
+        <v>396.1783736137452</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0458442345958</v>
+        <v>396.1783736137452</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5361554118202</v>
+        <v>255.6686847909695</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>136.6446458113327</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2867530403545</v>
+        <v>138.2867530403544</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9259401504664</v>
+        <v>368.9259401504661</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1377427601981</v>
+        <v>712.1377427601977</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946792520982</v>
@@ -5221,28 +5221,28 @@
         <v>2140.510581378377</v>
       </c>
       <c r="R13" t="n">
-        <v>2125.382414151536</v>
+        <v>2077.87327193841</v>
       </c>
       <c r="S13" t="n">
-        <v>2125.382414151536</v>
+        <v>1913.380535567741</v>
       </c>
       <c r="T13" t="n">
-        <v>1930.808946523567</v>
+        <v>1718.807067939773</v>
       </c>
       <c r="U13" t="n">
-        <v>1668.899227451716</v>
+        <v>1456.897348867922</v>
       </c>
       <c r="V13" t="n">
-        <v>1441.407887048334</v>
+        <v>1229.40600846454</v>
       </c>
       <c r="W13" t="n">
-        <v>1179.183864813879</v>
+        <v>1229.40600846454</v>
       </c>
       <c r="X13" t="n">
-        <v>1179.183864813879</v>
+        <v>1028.609605369028</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5844334728546</v>
+        <v>835.0101740280033</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2115.033495766917</v>
+        <v>1139.31563829967</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.046034918521</v>
+        <v>797.5462691617631</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.973484114276</v>
+        <v>797.5462691617631</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.378379318537</v>
+        <v>797.5462691617631</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5856223314346</v>
+        <v>724.781871373409</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7063199789367</v>
+        <v>336.9025690209108</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31586739020928</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508300938771</v>
+        <v>3242.508300938772</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723701125498</v>
+        <v>3063.723701125499</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.38637220184</v>
+        <v>2837.386372201841</v>
       </c>
       <c r="V14" t="n">
-        <v>2837.38637220184</v>
+        <v>2533.516632660776</v>
       </c>
       <c r="W14" t="n">
-        <v>2837.38637220184</v>
+        <v>2207.941125193167</v>
       </c>
       <c r="X14" t="n">
-        <v>2837.38637220184</v>
+        <v>1861.668514734593</v>
       </c>
       <c r="Y14" t="n">
-        <v>2474.440188028534</v>
+        <v>1498.722330561286</v>
       </c>
     </row>
     <row r="15">
@@ -5346,16 +5346,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2616458242696</v>
+        <v>710.4091706652325</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5186106988681</v>
+        <v>568.666135539831</v>
       </c>
       <c r="D16" t="n">
-        <v>636.5951190890378</v>
+        <v>445.7426439300008</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8751733091501</v>
+        <v>445.7426439300008</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1783736137451</v>
+        <v>326.0458442345958</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6686847909695</v>
+        <v>185.5361554118201</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6446458113327</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>138.2867530403545</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9259401504664</v>
+        <v>368.9259401504663</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1377427601981</v>
+        <v>712.137742760198</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946792520983</v>
@@ -5452,34 +5452,34 @@
         <v>1776.988776469732</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.248281064626</v>
+        <v>2036.248281064627</v>
       </c>
       <c r="Q16" t="n">
         <v>2140.510581378377</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.87327193841</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.380535567742</v>
+        <v>2140.510581378377</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.807067939773</v>
+        <v>2010.885403839191</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.897348867923</v>
+        <v>1748.97568476734</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.406008464541</v>
+        <v>1521.484344363959</v>
       </c>
       <c r="W16" t="n">
-        <v>1229.406008464541</v>
+        <v>1259.260322129503</v>
       </c>
       <c r="X16" t="n">
-        <v>1094.861077165294</v>
+        <v>1058.463919033991</v>
       </c>
       <c r="Y16" t="n">
-        <v>901.2616458242696</v>
+        <v>864.8644876929668</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1554.560589606581</v>
+        <v>1817.735679394757</v>
       </c>
       <c r="C17" t="n">
-        <v>1260.240853416748</v>
+        <v>1523.415943204924</v>
       </c>
       <c r="D17" t="n">
-        <v>976.6179355605768</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="E17" t="n">
-        <v>665.4724637129116</v>
+        <v>966.2257295162912</v>
       </c>
       <c r="F17" t="n">
-        <v>329.1293396738829</v>
+        <v>629.8826054772622</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4529360728375</v>
+        <v>289.4529360728376</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.957933886845</v>
       </c>
       <c r="T17" t="n">
-        <v>3194.270854743972</v>
+        <v>3158.622967021646</v>
       </c>
       <c r="U17" t="n">
-        <v>3015.383158768387</v>
+        <v>2979.735271046061</v>
       </c>
       <c r="V17" t="n">
-        <v>2758.963052175395</v>
+        <v>2723.315164453069</v>
       </c>
       <c r="W17" t="n">
-        <v>2480.837177655859</v>
+        <v>2445.189289933533</v>
       </c>
       <c r="X17" t="n">
-        <v>2182.014200145358</v>
+        <v>2445.189289933533</v>
       </c>
       <c r="Y17" t="n">
-        <v>1866.517648920124</v>
+        <v>2129.692738708301</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228008</v>
@@ -5598,7 +5598,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1142151877565</v>
+        <v>569.1142151877569</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8208130104283</v>
+        <v>474.8208130104287</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3469543486713</v>
+        <v>399.3469543486716</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0766415168569</v>
+        <v>326.0766415168571</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8294747695252</v>
+        <v>253.8294747695254</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7694188948229</v>
+        <v>160.769418894823</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19501286325935</v>
+        <v>89.19501286325942</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5698,25 +5698,25 @@
         <v>1912.1068715966</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.016485353171</v>
+        <v>1795.063768174005</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.892650673275</v>
+        <v>1647.939933494109</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.432564549498</v>
+        <v>1433.479847370332</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.390857094189</v>
+        <v>1253.438139915024</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6164678078076</v>
+        <v>1038.663750628642</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2696976603689</v>
+        <v>822.2696976603694</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1198992674175</v>
+        <v>676.119899267418</v>
       </c>
     </row>
     <row r="20">
@@ -5732,58 +5732,58 @@
         <v>1224.592965694423</v>
       </c>
       <c r="D20" t="n">
-        <v>940.970047838251</v>
+        <v>1224.592965694423</v>
       </c>
       <c r="E20" t="n">
-        <v>629.8245759905849</v>
+        <v>966.225729516291</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8245759905849</v>
+        <v>629.8826054772624</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4529360728375</v>
+        <v>289.4529360728376</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957933886844</v>
+        <v>3289.957933886846</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622967021645</v>
+        <v>3158.622967021646</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.73527104606</v>
+        <v>2979.735271046061</v>
       </c>
       <c r="V20" t="n">
         <v>2723.315164453069</v>
@@ -5826,16 +5826,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,7 +5847,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1142151877565</v>
+        <v>632.1614980085905</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8208130104283</v>
+        <v>537.8680958312623</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3469543486713</v>
+        <v>462.3942371695052</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0766415168569</v>
+        <v>389.1239243376908</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8294747695252</v>
+        <v>316.8767575903591</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7694188948229</v>
+        <v>223.8167017156568</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19501286325938</v>
+        <v>89.19501286325941</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
         <v>1912.106871596599</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.016485353171</v>
+        <v>1795.063768174005</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.892650673275</v>
+        <v>1647.939933494109</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.432564549498</v>
+        <v>1433.479847370332</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.390857094189</v>
+        <v>1253.438139915023</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6164678078076</v>
+        <v>1038.663750628642</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2696976603689</v>
+        <v>885.3169804812029</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1198992674175</v>
+        <v>739.1671820882515</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179185073751</v>
+        <v>1862.179185073752</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.859448883918</v>
+        <v>1567.859448883919</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236531027746</v>
+        <v>1284.236531027747</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800809</v>
+        <v>973.0910591800814</v>
       </c>
       <c r="F23" t="n">
-        <v>636.747935141052</v>
+        <v>636.7479351410525</v>
       </c>
       <c r="G23" t="n">
         <v>296.3182657366274</v>
@@ -5987,25 +5987,25 @@
         <v>73.37744609597333</v>
       </c>
       <c r="J23" t="n">
-        <v>429.6622260753517</v>
+        <v>262.2565770549988</v>
       </c>
       <c r="K23" t="n">
-        <v>763.4815997651981</v>
+        <v>596.0759507448453</v>
       </c>
       <c r="L23" t="n">
-        <v>1214.515813013607</v>
+        <v>1047.110163993254</v>
       </c>
       <c r="M23" t="n">
-        <v>1748.047717685531</v>
+        <v>1851.983966516631</v>
       </c>
       <c r="N23" t="n">
-        <v>2294.826534744313</v>
+        <v>2398.762783575414</v>
       </c>
       <c r="O23" t="n">
-        <v>2797.79900562365</v>
+        <v>2901.735254454751</v>
       </c>
       <c r="P23" t="n">
-        <v>3192.573371980828</v>
+        <v>3296.509620811929</v>
       </c>
       <c r="Q23" t="n">
         <v>3544.795982567611</v>
@@ -6020,19 +6020,19 @@
         <v>3501.889450211141</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.001754235556</v>
+        <v>3323.001754235557</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.581647642564</v>
+        <v>3066.581647642565</v>
       </c>
       <c r="W23" t="n">
         <v>2788.455773123029</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.632795612527</v>
+        <v>2489.632795612528</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136244387294</v>
+        <v>2174.136244387295</v>
       </c>
     </row>
     <row r="24">
@@ -6057,10 +6057,10 @@
         <v>319.2497322239498</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8866320565679</v>
+        <v>182.8866320565678</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38473769443539</v>
+        <v>92.38473769443536</v>
       </c>
       <c r="I24" t="n">
         <v>73.37744609597333</v>
@@ -6069,10 +6069,10 @@
         <v>167.0547155865906</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189145669377</v>
+        <v>405.3189145669378</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0170748796029</v>
+        <v>772.0170748796031</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293400101919</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9795448515464</v>
+        <v>575.9795448515465</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6861426742182</v>
+        <v>481.6861426742183</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2122840124612</v>
+        <v>406.2122840124613</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9419711806468</v>
+        <v>332.9419711806469</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6948044333151</v>
+        <v>260.6948044333152</v>
       </c>
       <c r="G25" t="n">
         <v>167.6347485586128</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06034252704929</v>
+        <v>96.0603425270493</v>
       </c>
       <c r="I25" t="n">
         <v>73.37744609597333</v>
@@ -6148,13 +6148,13 @@
         <v>118.5000785429089</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872614917851</v>
+        <v>322.4872614917853</v>
       </c>
       <c r="L25" t="n">
         <v>639.0470599402813</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041055398303</v>
+        <v>983.2041055398304</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612482245695</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549581599768</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.159877752282</v>
+        <v>1934.159877752283</v>
       </c>
       <c r="R25" t="n">
         <v>1918.972201260389</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.929097837794</v>
+        <v>1738.881815016961</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.805263157899</v>
+        <v>1591.757980337065</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.345177034121</v>
+        <v>1377.297894213288</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.303469578813</v>
+        <v>1197.25618675798</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.529080292431</v>
+        <v>982.4817974715976</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1823101449924</v>
+        <v>829.135027324159</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9852289312074</v>
+        <v>682.9852289312075</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689498</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467806</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.845421545561</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623798</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H27" t="n">
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6421,13 +6421,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="29">
@@ -6455,37 +6455,37 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>282.5873354070228</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>937.3106675423223</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1388.344880790731</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.596005545029</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O29" t="n">
-        <v>2826.495488321722</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768668</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6497,10 +6497,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
         <v>2714.947448833287</v>
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6637,7 +6637,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6655,10 +6655,10 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467804</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.879634793969</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M32" t="n">
-        <v>1928.524582776558</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N32" t="n">
-        <v>2475.30339983534</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3521.246801226998</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468336</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146295</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643394</v>
@@ -6853,16 +6853,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
@@ -6874,19 +6874,19 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467788</v>
+        <v>698.90370154678</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>792.1780824632694</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L35" t="n">
-        <v>1243.212295711678</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1776.744200383602</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N35" t="n">
-        <v>2323.523017442385</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O35" t="n">
-        <v>2826.495488321721</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P35" t="n">
-        <v>3539.850575768667</v>
+        <v>3474.791320094416</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973137</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982164</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O37" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
         <v>1400.778593038484</v>
@@ -7172,28 +7172,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486247</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.596005545029</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
@@ -7251,13 +7251,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7333,49 +7333,49 @@
         <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973152</v>
       </c>
       <c r="L40" t="n">
-        <v>786.332686498217</v>
+        <v>786.332686498218</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V40" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E41" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668915</v>
@@ -7421,19 +7421,19 @@
         <v>2033.429937623799</v>
       </c>
       <c r="N41" t="n">
-        <v>2580.208754682581</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O41" t="n">
-        <v>3083.181225561918</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7445,16 +7445,16 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D42" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F42" t="n">
         <v>327.0192030246656</v>
@@ -7488,13 +7488,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E43" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
         <v>350.043718641547</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7570,13 +7570,13 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7588,13 +7588,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
         <v>1953.038372570351</v>
@@ -7603,7 +7603,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
         <v>1262.182746297367</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7628,61 +7628,61 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1184.800837351328</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>1718.332742023252</v>
+        <v>1872.543307058811</v>
       </c>
       <c r="N44" t="n">
-        <v>2265.111559082034</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O44" t="n">
-        <v>3145.076209411489</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P44" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R45" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S45" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T45" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U45" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V45" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W45" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X45" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y45" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="46">
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C46" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257036</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
         <v>1910.743863481263</v>
@@ -7840,7 +7840,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.299882151966</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764232</v>
+        <v>212.1614152764231</v>
       </c>
       <c r="L5" t="n">
         <v>225.9304893188439</v>
       </c>
       <c r="M5" t="n">
-        <v>219.4018707603981</v>
+        <v>219.401870760398</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030236</v>
+        <v>218.2916099030235</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661487</v>
+        <v>219.5965380661486</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111178</v>
+        <v>222.2700605111177</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,25 +8292,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>123.6869003357294</v>
+        <v>123.6869003357293</v>
       </c>
       <c r="K6" t="n">
-        <v>132.4563458344807</v>
+        <v>132.4563458344806</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915379</v>
+        <v>131.3134574915378</v>
       </c>
       <c r="M6" t="n">
-        <v>133.6842191437699</v>
+        <v>133.6842191437698</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6682558511133</v>
+        <v>122.6682558511132</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891798</v>
+        <v>134.6617264891797</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357708</v>
+        <v>127.6062572357707</v>
       </c>
       <c r="Q6" t="n">
         <v>135.7248343369105</v>
@@ -8383,13 +8383,13 @@
         <v>134.543165321606</v>
       </c>
       <c r="N7" t="n">
-        <v>123.4071347145262</v>
+        <v>123.4071347145261</v>
       </c>
       <c r="O7" t="n">
         <v>134.5047345663801</v>
       </c>
       <c r="P7" t="n">
-        <v>134.3465531299172</v>
+        <v>134.3465531299171</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>274.0827251024778</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>104.9861099304053</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>274.8351763665443</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>12.68816924374568</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>21.13839585591563</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>343.5485285966308</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>165.3902622431548</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>21.13839585591467</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544149</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>277.2206841544151</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,13 +11069,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>274.8351763665418</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11300,22 +11300,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>131.2335379367253</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>287.0017854473909</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3516754465272</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>191.2645120089973</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6865480628401</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.3521661530194</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0739556344217</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8310421456546</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3197523929327</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8098843539887</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.99988923731019</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.4998316984509</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43120408535773</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.03405079099458</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8478090069615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>259.6017820121107</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7884390645568</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>39.38408920661507</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7618252962026</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0091537477815</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>307.9180756067605</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65571344844562</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8310421456546</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3197523929327</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8098843539887</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9107638574569</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5127463220888</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43120408535776</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.010936345567</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8478090069616</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>64.29880718789576</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6017820121107</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>65.58895707830261</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>37.2023942550525</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>297.7457331453463</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29140884510289</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>295.8347477353961</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.7866886776101</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>52.25045331283837</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9796927986386</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0574491918106359</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>976402.108025209</v>
+        <v>976402.1080252088</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>976402.108025209</v>
+        <v>976402.1080252089</v>
       </c>
     </row>
     <row r="7">
@@ -26323,37 +26323,37 @@
         <v>310055.3033574563</v>
       </c>
       <c r="F2" t="n">
-        <v>310055.3033574564</v>
+        <v>310055.3033574565</v>
       </c>
       <c r="G2" t="n">
-        <v>337676.1056787835</v>
+        <v>337676.1056787833</v>
       </c>
       <c r="H2" t="n">
-        <v>337676.1056787833</v>
+        <v>337676.1056787834</v>
       </c>
       <c r="I2" t="n">
-        <v>348942.75219232</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="J2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923201</v>
       </c>
       <c r="K2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="L2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="M2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="N2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="O2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923202</v>
+        <v>348942.7521923205</v>
       </c>
     </row>
     <row r="3">
@@ -26366,34 +26366,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945419</v>
+        <v>14118.19859945434</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072219</v>
+        <v>16714.64353072204</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487423</v>
+        <v>37580.1092948742</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.44161905848</v>
+        <v>22820.44161905842</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728121</v>
+        <v>25410.44272728114</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920729</v>
@@ -26424,40 +26424,40 @@
         <v>421594.991239873</v>
       </c>
       <c r="E4" t="n">
-        <v>37585.46710210906</v>
+        <v>37585.46710210903</v>
       </c>
       <c r="F4" t="n">
-        <v>37585.46710210906</v>
+        <v>37585.46710210903</v>
       </c>
       <c r="G4" t="n">
-        <v>74613.22686521037</v>
+        <v>74613.22686521034</v>
       </c>
       <c r="H4" t="n">
-        <v>74613.22686521038</v>
+        <v>74613.22686521035</v>
       </c>
       <c r="I4" t="n">
-        <v>85473.00365913913</v>
+        <v>85473.00365913907</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646601</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646595</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646599</v>
+        <v>80755.36360646595</v>
       </c>
       <c r="M4" t="n">
-        <v>80755.36360646595</v>
+        <v>80755.36360646594</v>
       </c>
       <c r="N4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646589</v>
       </c>
       <c r="O4" t="n">
-        <v>80755.36360646595</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="P4" t="n">
-        <v>80755.36360646599</v>
+        <v>80755.36360646597</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.58029657604</v>
+        <v>76569.58029657601</v>
       </c>
       <c r="F5" t="n">
         <v>76569.58029657604</v>
@@ -26500,7 +26500,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="N5" t="n">
         <v>89377.9416748061</v>
@@ -26509,7 +26509,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-116333.6654879345</v>
+        <v>-116338.0790658027</v>
       </c>
       <c r="C6" t="n">
-        <v>-126628.3929782369</v>
+        <v>-126632.7941527072</v>
       </c>
       <c r="D6" t="n">
-        <v>-124503.4914080732</v>
+        <v>-124507.8769689326</v>
       </c>
       <c r="E6" t="n">
-        <v>-921268.585513149</v>
+        <v>-921497.335212177</v>
       </c>
       <c r="F6" t="n">
-        <v>195900.2559587713</v>
+        <v>195671.5062597425</v>
       </c>
       <c r="G6" t="n">
-        <v>144964.0364617344</v>
+        <v>144897.7620704782</v>
       </c>
       <c r="H6" t="n">
-        <v>182544.1457566087</v>
+        <v>182477.8713653527</v>
       </c>
       <c r="I6" t="n">
-        <v>154912.9233126775</v>
+        <v>154912.9233126779</v>
       </c>
       <c r="J6" t="n">
         <v>153399.004183767</v>
       </c>
       <c r="K6" t="n">
-        <v>178809.4469110482</v>
+        <v>178809.4469110484</v>
       </c>
       <c r="L6" t="n">
-        <v>141229.3376161741</v>
+        <v>141229.3376161745</v>
       </c>
       <c r="M6" t="n">
-        <v>-28379.12138102452</v>
+        <v>-28379.12138102451</v>
       </c>
       <c r="N6" t="n">
-        <v>178809.4469110483</v>
+        <v>178809.4469110486</v>
       </c>
       <c r="O6" t="n">
-        <v>178809.4469110482</v>
+        <v>178809.4469110485</v>
       </c>
       <c r="P6" t="n">
-        <v>178809.4469110481</v>
+        <v>178809.4469110484</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
@@ -26713,16 +26713,16 @@
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
+        <v>46.97513661859251</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859251</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859261</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859259</v>
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953832</v>
+        <v>15.50424729953849</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>917.2180761996666</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208614</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953832</v>
+        <v>15.50424729953849</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958701</v>
+        <v>19.51701341958683</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81662079737396</v>
+        <v>85.81662079737373</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894805</v>
+        <v>97.11838500894783</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27637,7 +27637,7 @@
         <v>208.0729649713488</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593851952</v>
+        <v>6.659224593851895</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.259908116783925</v>
+        <v>3.259908116783852</v>
       </c>
       <c r="R5" t="n">
         <v>145.9538669886688</v>
@@ -27713,7 +27713,7 @@
         <v>111.9133654388211</v>
       </c>
       <c r="I6" t="n">
-        <v>88.24844095234549</v>
+        <v>88.24844095234548</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573498</v>
+        <v>98.08728580573495</v>
       </c>
       <c r="S6" t="n">
         <v>171.0637325442761</v>
@@ -27795,10 +27795,10 @@
         <v>154.609687221244</v>
       </c>
       <c r="J7" t="n">
-        <v>91.3825156699759</v>
+        <v>91.38251566997587</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263532</v>
+        <v>19.02122493263528</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.8209019094641</v>
+        <v>83.82090190946407</v>
       </c>
       <c r="R7" t="n">
         <v>176.0362765059643</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92121632448035</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292592</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="S19" t="n">
-        <v>11.4795429504469</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89635294307291</v>
+        <v>11.47954295044775</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307286</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89635294307291</v>
+        <v>11.47954295044738</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="S22" t="n">
-        <v>11.47954295044781</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89635294307291</v>
+        <v>11.47954295044758</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89635294307291</v>
+        <v>73.89635294307288</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.47954295044772</v>
+        <v>73.89635294307288</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859347</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859347</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859306</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859119</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859159</v>
       </c>
       <c r="P46" t="n">
         <v>46.97513661859259</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.062328632359953</v>
+        <v>0.06232863235995367</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061563688</v>
+        <v>0.6383231061563757</v>
       </c>
       <c r="I5" t="n">
-        <v>2.40292459905709</v>
+        <v>2.402924599057116</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760566</v>
+        <v>5.290064760760623</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768557378</v>
+        <v>7.928435768557463</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651143292</v>
+        <v>9.835925651143398</v>
       </c>
       <c r="M5" t="n">
-        <v>10.9443624668746</v>
+        <v>10.94436246687472</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356732</v>
+        <v>11.12145369356744</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553804</v>
+        <v>10.50167335553815</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244151698</v>
+        <v>8.962935244151796</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097760879</v>
+        <v>6.730791097760952</v>
       </c>
       <c r="R5" t="n">
-        <v>3.915250952480901</v>
+        <v>3.915250952480943</v>
       </c>
       <c r="S5" t="n">
-        <v>1.42031370990243</v>
+        <v>1.420313709902446</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881556944</v>
+        <v>0.2728435881556973</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588796239</v>
+        <v>0.004986290588796293</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240318</v>
+        <v>0.03334875834240354</v>
       </c>
       <c r="H6" t="n">
-        <v>0.322078797675315</v>
+        <v>0.3220787976753184</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069583</v>
+        <v>1.148191899069596</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937311</v>
+        <v>3.150726330937346</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139878324</v>
+        <v>5.385093139878382</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288336271</v>
+        <v>7.240922288336348</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778248383</v>
+        <v>8.449814778248475</v>
       </c>
       <c r="N6" t="n">
-        <v>8.673456232220028</v>
+        <v>8.67345623222012</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955264672</v>
+        <v>7.934517955264758</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178559429</v>
+        <v>6.368150178559498</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749110975</v>
+        <v>4.25693974911102</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346908156</v>
+        <v>2.070548346908179</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595617429</v>
+        <v>0.6194385595617495</v>
       </c>
       <c r="T6" t="n">
-        <v>0.134418898757318</v>
+        <v>0.1344188987573195</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368631</v>
+        <v>0.002193997259368655</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687238</v>
+        <v>0.02795847873687268</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696473</v>
+        <v>0.24857629276965</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8407877060143077</v>
+        <v>0.8407877060143168</v>
       </c>
       <c r="J7" t="n">
-        <v>1.976664446696877</v>
+        <v>1.976664446696898</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247536</v>
+        <v>3.248266893247571</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207372</v>
+        <v>4.156663284207417</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625999004</v>
+        <v>4.382618625999051</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750707028</v>
+        <v>4.278409750707074</v>
       </c>
       <c r="O7" t="n">
-        <v>3.951803885462654</v>
+        <v>3.951803885462696</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230454</v>
+        <v>3.381450919230491</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.341141342230286</v>
+        <v>2.341141342230312</v>
       </c>
       <c r="R7" t="n">
-        <v>1.257114871205189</v>
+        <v>1.257114871205202</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339871303</v>
+        <v>0.4872400339871355</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1194589546030001</v>
+        <v>0.1194589546030014</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102131</v>
+        <v>0.001525007931102148</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32087,13 +32087,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32318,10 +32318,10 @@
         <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233468</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837926</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,10 +32546,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32558,28 +32558,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49963293754658</v>
+        <v>72.49963293754652</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9688758687999</v>
+        <v>232.9688758687998</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6785884946785</v>
+        <v>346.6785884946784</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5545957179642</v>
+        <v>374.5545957179641</v>
       </c>
       <c r="N13" t="n">
         <v>371.7781624920204</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2743465471201</v>
+        <v>329.27434654712</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8782874695908</v>
+        <v>261.8782874695907</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.315454862374</v>
+        <v>105.3154548623739</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754658</v>
+        <v>72.49963293754655</v>
       </c>
       <c r="K16" t="n">
         <v>232.9688758687999</v>
@@ -35966,10 +35966,10 @@
         <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013285</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004593</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36206,19 +36206,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>813.0038409327045</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>355.7804147341247</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>827.1370117794555</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>203.4751702124582</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>529.1913967441346</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>882.4696444268574</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>416.1845670468743</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37233,16 +37233,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37306,28 +37306,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>358.329682411315</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>675.9826703737867</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120763</v>
@@ -37476,7 +37476,7 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412332</v>
       </c>
       <c r="P37" t="n">
         <v>281.9322077637029</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737867</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597776</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162913</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120763</v>
@@ -37719,7 +37719,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564867</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,13 +37789,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>673.5971625859137</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37950,13 +37950,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564848</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>586.8236523290573</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>825.9229012776177</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,10 +38184,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412314</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
